--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Acute Coronary Syndrome_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Acute Coronary Syndrome_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chest pain described as pressure or squeezing</t>
+          <t>Chest pain radiating to the left arm or jaw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This type of chest pain is highly characteristic of Acute Coronary Syndrome and is often reported by patients experiencing myocardial ischemia.</t>
+          <t>This type of pain is highly specific for Acute Coronary Syndrome, as it is less commonly seen in other conditions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Symptoms relieved by rest</t>
+          <t>Chest pain reproducible by palpation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If symptoms improve significantly with rest, it is less likely to be Acute Coronary Syndrome, which typically does not resolve quickly.</t>
+          <t>Pain that can be reproduced by palpation is more indicative of musculoskeletal causes rather than Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Radiation of pain to the left arm or jaw</t>
+          <t>Chest pain described as pressure or squeezing</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pain that radiates to the left arm or jaw is a classic symptom of Acute Coronary Syndrome, indicating possible cardiac involvement.</t>
+          <t>The classic description of chest pain in Acute Coronary Syndrome is often pressure-like, which is more specific than other types of chest pain.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Presence of sharp, localized chest pain</t>
+          <t>Sharp or stabbing chest pain</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sharp, localized pain is more indicative of musculoskeletal issues rather than the diffuse, pressure-like pain associated with Acute Coronary Syndrome.</t>
+          <t>Sharp or stabbing pain is less typical of Acute Coronary Syndrome and more common in other conditions like pleuritis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Shortness of breath accompanying chest discomfort</t>
+          <t>Chest pain occurring at rest or with minimal exertion</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dyspnea is frequently associated with Acute Coronary Syndrome, particularly in cases of myocardial infarction or unstable angina.</t>
+          <t>Pain at rest or with minimal exertion is more indicative of an unstable cardiac condition like Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of risk factors such as hypertension, diabetes, or smoking</t>
+          <t>Pain that improves with position change</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lack of traditional risk factors makes Acute Coronary Syndrome less likely, as these factors significantly increase the risk.</t>
+          <t>Pain that changes with position is more characteristic of pericarditis or musculoskeletal issues rather than Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nausea or vomiting during the episode</t>
+          <t>Chest pain lasting more than 20 minutes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms like nausea can occur in Acute Coronary Syndrome due to vagal stimulation or ischemia.</t>
+          <t>Prolonged chest pain is more suggestive of Acute Coronary Syndrome compared to brief episodes.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Symptoms occurring after a specific movement or position change</t>
+          <t>Pain that improves with antacids</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pain that is positional or related to movement is more suggestive of musculoskeletal pain rather than cardiac issues.</t>
+          <t>Improvement with antacids suggests a gastrointestinal cause, such as GERD, rather than Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onset of symptoms during physical exertion or emotional stress</t>
+          <t>Associated symptoms of diaphoresis and nausea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Symptoms that arise during exertion or stress are indicative of myocardial ischemia, which is a hallmark of Acute Coronary Syndrome.</t>
+          <t>These autonomic symptoms often accompany cardiac ischemia and are more specific to Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of family history of heart disease</t>
+          <t>Pain that is fleeting or lasts only a few seconds</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A negative family history reduces the likelihood of Acute Coronary Syndrome, as genetic predisposition plays a role in cardiovascular diseases.</t>
+          <t>Very brief episodes of pain are less likely to be due to Acute Coronary Syndrome, which typically causes more sustained discomfort.</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A previous myocardial infarction significantly increases the risk of subsequent Acute Coronary Syndrome due to underlying coronary artery disease.</t>
+          <t>A previous myocardial infarction significantly increases the risk of recurrent coronary events, indicating a higher likelihood of Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of previous cardiovascular disease reduces the likelihood of Acute Coronary Syndrome.</t>
+          <t>The absence of any cardiovascular disease history reduces the likelihood of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
@@ -640,83 +640,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with a known history of coronary artery disease are at a higher risk for Acute Coronary Syndrome due to the presence of atherosclerosis.</t>
+          <t>A known history of coronary artery disease suggests underlying atherosclerosis, which is a major risk factor for Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No current medications for cardiovascular conditions</t>
+          <t>No use of cardiovascular medications</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Not being on any cardiovascular medications suggests a lower risk for Acute Coronary Syndrome.</t>
+          <t>Not using medications typically prescribed for heart conditions, such as statins or beta-blockers, suggests a lower risk of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Current use of antiplatelet medications</t>
+          <t>Use of antiplatelet therapy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients on antiplatelet therapy may have a history of cardiovascular events, indicating a higher risk for Acute Coronary Syndrome.</t>
+          <t>Current use of antiplatelet therapy, such as aspirin, often indicates a history of coronary artery disease or previous cardiac events, supporting the likelihood of Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of hyperlipidemia</t>
+          <t>History of non-cardiac chest pain</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of hyperlipidemia indicates a lower risk for coronary artery disease and consequently Acute Coronary Syndrome.</t>
+          <t>A history of chest pain attributed to non-cardiac causes can decrease the likelihood of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of diabetes mellitus</t>
+          <t>History of percutaneous coronary intervention</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diabetes is a significant risk factor for coronary artery disease, which can lead to Acute Coronary Syndrome.</t>
+          <t>A history of percutaneous coronary intervention suggests previous significant coronary artery disease, increasing the risk of Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of heart disease</t>
+          <t>History of anxiety or panic disorder</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A lack of family history of heart disease suggests a lower genetic predisposition to Acute Coronary Syndrome.</t>
+          <t>Anxiety or panic disorders can mimic symptoms of Acute Coronary Syndrome, but their presence may suggest a non-cardiac cause for symptoms.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of hypertension</t>
+          <t>History of coronary artery bypass grafting</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypertension is a well-known risk factor for cardiovascular diseases, including Acute Coronary Syndrome.</t>
+          <t>Previous coronary artery bypass grafting indicates severe coronary artery disease, which is a strong risk factor for Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of smoking</t>
+          <t>No history of hypertension or hyperlipidemia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Not smoking significantly reduces the risk of developing cardiovascular diseases, including Acute Coronary Syndrome.</t>
+          <t>The absence of hypertension or hyperlipidemia, common risk factors for coronary artery disease, reduces the likelihood of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
@@ -764,44 +764,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of coronary artery disease</t>
+          <t>Family history of premature coronary artery disease</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A strong family history of coronary artery disease significantly increases the risk of Acute Coronary Syndrome due to genetic predisposition.</t>
+          <t>A family history of premature coronary artery disease significantly increases the risk of Acute Coronary Syndrome due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of cardiovascular disease in family</t>
+          <t>No family history of cardiovascular disease</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of cardiovascular disease in the family history suggests a lower genetic risk for Acute Coronary Syndrome.</t>
+          <t>Absence of a family history of cardiovascular disease reduces the genetic predisposition to Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Current smoking status</t>
+          <t>Current smoker</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smoking is a well-established risk factor for Acute Coronary Syndrome, as it contributes to atherosclerosis and endothelial dysfunction.</t>
+          <t>Smoking is a major risk factor for Acute Coronary Syndrome as it contributes to atherosclerosis and thrombosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Regular physical activity</t>
+          <t>Non-smoker</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Engaging in regular exercise is protective against cardiovascular diseases, reducing the likelihood of Acute Coronary Syndrome.</t>
+          <t>Not smoking significantly reduces the risk of developing Acute Coronary Syndrome as smoking is a major modifiable risk factor.</t>
         </is>
       </c>
     </row>
@@ -813,61 +813,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A lack of physical activity is associated with higher rates of cardiovascular disease, including Acute Coronary Syndrome.</t>
+          <t>A sedentary lifestyle is associated with increased risk of cardiovascular diseases, including Acute Coronary Syndrome, due to poor cardiovascular fitness and obesity.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Non-smoker</t>
+          <t>Regular physical activity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Being a non-smoker significantly lowers the risk of developing Acute Coronary Syndrome compared to smokers.</t>
+          <t>Engaging in regular physical activity is protective against Acute Coronary Syndrome by improving cardiovascular health.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>High-stress occupation or lifestyle</t>
+          <t>High-stress occupation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic stress is linked to increased cardiovascular risk, which can lead to Acute Coronary Syndrome.</t>
+          <t>Chronic stress is linked to increased risk of Acute Coronary Syndrome through mechanisms like hypertension and increased heart rate.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Healthy diet with low saturated fats</t>
+          <t>Low-stress lifestyle</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A diet low in saturated fats is associated with a reduced risk of coronary artery disease and Acute Coronary Syndrome.</t>
+          <t>A low-stress lifestyle is associated with a lower risk of Acute Coronary Syndrome as it reduces stress-related cardiovascular strain.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of hypertension</t>
+          <t>Excessive alcohol consumption</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypertension is a significant risk factor for the development of coronary artery disease and Acute Coronary Syndrome.</t>
+          <t>Excessive alcohol intake can lead to hypertension and cardiomyopathy, increasing the risk of Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Low-stress lifestyle</t>
+          <t>Moderate alcohol consumption</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lifestyle characterized by low stress levels is associated with a decreased risk of cardiovascular events, including Acute Coronary Syndrome.</t>
+          <t>Moderate alcohol consumption is associated with a lower risk of Acute Coronary Syndrome compared to excessive consumption.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elevated blood pressure</t>
+          <t>Diaphoresis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypertension is commonly observed in patients with Acute Coronary Syndrome, indicating increased cardiac workload and potential ischemia.</t>
+          <t>Diaphoresis is a common autonomic response to myocardial ischemia, often seen in Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal heart rate</t>
+          <t>Normal heart sounds</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal heart rate is less likely in patients with Acute Coronary Syndrome, suggesting that myocardial ischemia is not present.</t>
+          <t>Normal heart sounds suggest the absence of heart failure or significant valvular abnormalities, which are often present in Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tachycardia</t>
+          <t>New S3 heart sound</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Increased heart rate is frequently seen in Acute Coronary Syndrome due to sympathetic activation in response to myocardial ischemia.</t>
+          <t>The presence of an S3 heart sound can indicate heart failure or volume overload, which may accompany Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal blood pressure</t>
+          <t>No chest wall tenderness</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stable blood pressure readings are less common in Acute Coronary Syndrome, indicating that the patient may not be experiencing cardiac stress.</t>
+          <t>Chest wall tenderness is more indicative of musculoskeletal pain rather than Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Diaphoresis</t>
+          <t>Hypotension</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Excessive sweating is a common physical exam finding in Acute Coronary Syndrome, often due to stress and pain associated with myocardial ischemia.</t>
+          <t>Hypotension can occur due to decreased cardiac output in the setting of Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of diaphoresis</t>
+          <t>Normal blood pressure</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of sweating during a physical exam suggests that the patient is not experiencing acute distress, which is often present in Acute Coronary Syndrome.</t>
+          <t>Normal blood pressure reduces the likelihood of hemodynamic instability associated with Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Abnormal heart sounds (e.g., S3 or S4 gallop)</t>
+          <t>Jugular venous distension</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>These findings can indicate heart failure or volume overload, which may occur in the context of Acute Coronary Syndrome.</t>
+          <t>Jugular venous distension can indicate right heart strain or failure, which may be associated with Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Clear lung sounds</t>
+          <t>Absence of diaphoresis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal lung auscultation findings indicate that there is no pulmonary congestion, which can be associated with heart failure in Acute Coronary Syndrome.</t>
+          <t>The absence of diaphoresis decreases the likelihood of an autonomic response to myocardial ischemia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Peripheral edema</t>
+          <t>New or worsening heart murmur</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Swelling in the extremities can suggest heart failure secondary to Acute Coronary Syndrome, indicating compromised cardiac function.</t>
+          <t>A new or worsening heart murmur may indicate complications such as papillary muscle rupture in Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No peripheral edema</t>
+          <t>No jugular venous distension</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of swelling in the extremities suggests that there is no fluid overload or heart failure, which can accompany Acute Coronary Syndrome.</t>
+          <t>The absence of jugular venous distension suggests no right heart strain or failure, which can be associated with Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
@@ -1066,22 +1066,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elevated troponin levels</t>
+          <t>Elevated Troponin levels</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Troponin is a cardiac biomarker that is highly specific for myocardial injury, making elevated levels a strong indicator of Acute Coronary Syndrome.</t>
+          <t>Troponin is a cardiac biomarker that is highly specific for myocardial injury, which is a key component of Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal troponin levels</t>
+          <t>Normal Troponin levels</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal troponin levels suggest that there is no significant myocardial injury, making Acute Coronary Syndrome less likely.</t>
+          <t>Normal Troponin levels suggest the absence of myocardial injury, making Acute Coronary Syndrome less likely.</t>
         </is>
       </c>
     </row>
@@ -1093,83 +1093,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ST-segment elevation is a classic finding in ST-Elevation Myocardial Infarction (STEMI), a type of Acute Coronary Syndrome, indicating significant myocardial ischemia.</t>
+          <t>ST-segment elevation is a classic finding in ST-Elevation Myocardial Infarction (STEMI), a type of Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal ECG findings</t>
+          <t>Normal ECG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A normal ECG does not show signs of ischemia or infarction, which strongly argues against the presence of Acute Coronary Syndrome.</t>
+          <t>A normal ECG reduces the likelihood of Acute Coronary Syndrome, as significant ECG changes are often present in these cases.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>New left bundle branch block (LBBB) on ECG</t>
+          <t>New left bundle branch block on ECG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of a new LBBB can indicate an acute myocardial infarction, which is a form of Acute Coronary Syndrome.</t>
+          <t>A new left bundle branch block can be indicative of acute myocardial infarction, which is part of Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Negative stress test results</t>
+          <t>Negative stress test</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A negative result on a cardiac stress test indicates no ischemia, which is inconsistent with Acute Coronary Syndrome.</t>
+          <t>A negative stress test indicates no significant myocardial ischemia, which argues against Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase-MB (CK-MB)</t>
+          <t>Positive stress test</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CK-MB is another cardiac enzyme that rises in response to myocardial injury, supporting the diagnosis of Acute Coronary Syndrome when elevated.</t>
+          <t>A positive stress test indicates myocardial ischemia, which is consistent with Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal CK-MB levels</t>
+          <t>Coronary angiography showing no significant stenosis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal CK-MB levels indicate that there is no myocardial injury, making Acute Coronary Syndrome unlikely.</t>
+          <t>The absence of significant stenosis on coronary angiography suggests that coronary artery disease, and thus Acute Coronary Syndrome, is unlikely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Positive stress test results</t>
+          <t>Coronary angiography showing significant stenosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A positive result on a cardiac stress test indicates ischemia, which is consistent with Acute Coronary Syndrome.</t>
+          <t>Significant stenosis in coronary arteries is a direct indicator of coronary artery disease, which can lead to Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Negative imaging results (e.g., echocardiogram)</t>
+          <t>Normal CK-MB levels</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Negative findings on imaging studies suggest that there is no significant cardiac dysfunction or ischemia, arguing against Acute Coronary Syndrome.</t>
+          <t>Normal CK-MB levels indicate no myocardial damage, which is inconsistent with Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
